--- a/Delhi80/validate this script.xlsx
+++ b/Delhi80/validate this script.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chache\Documents\GitHub\DFS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chache\Documents\GitHub\DFS\Delhi80\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="14790" windowHeight="11940"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="14790" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="FOG50" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,20 +42,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>measure FOG50 to get the MSG, combine the FOG and OPL</t>
+    <t>compare these two MSG</t>
   </si>
   <si>
-    <t>measure the gain when the gain setting is 0, to calculate the MSG from the frequency response from rec to mic</t>
+    <r>
+      <t xml:space="preserve">measure FOG50 to get the MSG, combine the FOG and OPL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MSG_opl = FOG -  OPL</t>
+    </r>
   </si>
   <si>
-    <t>compare these two MSG</t>
+    <r>
+      <t xml:space="preserve">measure the gain when the gain setting is 0, to calculate the MSG from the frequency response from rec to mic: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MSG_ALT = init_resp_calibrated + gain0</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +100,14 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -414,7 +448,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -460,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -484,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
